--- a/Saarconn/sysdesk/SAARCONN/SAARCONN_UI/uploads/Appl.xlsx
+++ b/Saarconn/sysdesk/SAARCONN/SAARCONN_UI/uploads/Appl.xlsx
@@ -5090,8 +5090,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="709b8bb6e848f0792bb9624f5c622d1b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d22eae710298afc5d0f0aac47c48f6f" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004FF20ACD2ACDAF4B84EF9300C67B2159" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6de155b8d6d317014516f813c4ccfc8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e4be601-d1eb-4833-8855-b10f66ff5f6e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d2c23ec9ed121f54b8bf234ed70c442" ns2:_="">
     <xsd:import namespace="1e4be601-d1eb-4833-8855-b10f66ff5f6e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -5103,6 +5103,11 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -5129,6 +5134,35 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="111f8b2a-cd79-47dd-889c-3fa2f1862339" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -5244,7 +5278,11 @@
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e4be601-d1eb-4833-8855-b10f66ff5f6e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -5258,7 +5296,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EBEEF43-B660-40E7-B206-F7AEE0449C9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CF38C1-D6F7-45FB-98AC-54A93E682D7F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
